--- a/fantasyexcel.xlsx
+++ b/fantasyexcel.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JXH3JJU\OneDrive - The Home Depot\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin Woo Hwang\fantasybball\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09784C6A-3B19-439C-B5A8-1A288149475F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>PUNT</t>
   </si>
@@ -47,9 +54,6 @@
     <t>JJ</t>
   </si>
   <si>
-    <t>DARIO</t>
-  </si>
-  <si>
     <t>2BAG</t>
   </si>
   <si>
@@ -89,33 +93,15 @@
     <t>POS</t>
   </si>
   <si>
-    <t>ADD?</t>
-  </si>
-  <si>
-    <t>MKG</t>
-  </si>
-  <si>
     <t>TOBY</t>
   </si>
   <si>
-    <t>TRADE FOR</t>
-  </si>
-  <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
     <t>Deja Vucevic</t>
   </si>
   <si>
-    <t>]\</t>
-  </si>
-  <si>
     <t>ROS</t>
   </si>
   <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
     <t>Chippi Chipp</t>
   </si>
   <si>
@@ -137,9 +123,6 @@
     <t>Total Delta</t>
   </si>
   <si>
-    <t>Top 9</t>
-  </si>
-  <si>
     <t>BROGDON</t>
   </si>
   <si>
@@ -191,12 +174,6 @@
     <t>Week 8</t>
   </si>
   <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>ROSS</t>
-  </si>
-  <si>
     <t>BAPTIST</t>
   </si>
   <si>
@@ -212,12 +189,6 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>vs SQUANCH</t>
-  </si>
-  <si>
     <t>6 to 5</t>
   </si>
   <si>
@@ -236,40 +207,121 @@
     <t>JAVALE</t>
   </si>
   <si>
-    <t>BOJAN</t>
-  </si>
-  <si>
-    <t>TURNER</t>
-  </si>
-  <si>
     <t>LOVEMAKERS</t>
   </si>
   <si>
-    <t>UJIRI</t>
-  </si>
-  <si>
-    <t>BUDRICK</t>
-  </si>
-  <si>
-    <t>BULLOCK</t>
-  </si>
-  <si>
-    <t>Last 2 weeks</t>
-  </si>
-  <si>
-    <t>REGGIE</t>
-  </si>
-  <si>
-    <t>BEIJING</t>
-  </si>
-  <si>
-    <t>DANNY G</t>
+    <t>DEDMON</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Top 10</t>
+  </si>
+  <si>
+    <t>vs LOVEMAKERS</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>Trade for</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
+    <t>Javale</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Nurkic</t>
+  </si>
+  <si>
+    <t>2Bog</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Enes</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Dedmon</t>
+  </si>
+  <si>
+    <t>Ibaka</t>
+  </si>
+  <si>
+    <t>13 Players</t>
+  </si>
+  <si>
+    <t>12 Players</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> q</t>
+  </si>
+  <si>
+    <t>BUDDY</t>
+  </si>
+  <si>
+    <t>2BOG</t>
+  </si>
+  <si>
+    <t>TRADE FOR PLAYOFFS</t>
+  </si>
+  <si>
+    <t>WCS</t>
+  </si>
+  <si>
+    <t>BJELICA</t>
+  </si>
+  <si>
+    <t>T. BRYANT</t>
+  </si>
+  <si>
+    <t>BARTON</t>
+  </si>
+  <si>
+    <t>KRINGO</t>
+  </si>
+  <si>
+    <t>NANCE</t>
+  </si>
+  <si>
+    <t>GRANT</t>
+  </si>
+  <si>
+    <t>FAVORS</t>
+  </si>
+  <si>
+    <t>MORRIS</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,11 +359,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,13 +394,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>328082</xdr:colOff>
+      <xdr:colOff>331257</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>130901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -378,13 +438,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>447830</xdr:colOff>
+      <xdr:colOff>444655</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>162627</xdr:rowOff>
+      <xdr:rowOff>159452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -422,7 +488,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -454,13 +526,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>465665</xdr:colOff>
+      <xdr:colOff>468840</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>118937</xdr:rowOff>
+      <xdr:rowOff>122112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -492,13 +570,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>502017</xdr:colOff>
+      <xdr:colOff>505192</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>18397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -529,14 +613,20 @@
       <xdr:rowOff>147366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>624416</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8114</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>106231</xdr:rowOff>
+      <xdr:rowOff>103056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -568,13 +658,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>52916</xdr:colOff>
+      <xdr:colOff>49741</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>156829</xdr:rowOff>
+      <xdr:rowOff>160004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -608,11 +704,17 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>438832</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>27257</xdr:rowOff>
+      <xdr:rowOff>30432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -650,7 +752,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -675,20 +783,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>624416</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>163914</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>156441</xdr:rowOff>
+      <xdr:colOff>605462</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D012B97F-DC8D-4A07-A149-3B8CB7A0466A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -701,8 +815,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9773708" y="523747"/>
-          <a:ext cx="9069917" cy="1791694"/>
+          <a:off x="9972675" y="14478725"/>
+          <a:ext cx="8530262" cy="2028100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,20 +827,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23086</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9281</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>6671</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68792</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8751</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7E9483-A603-4EFB-9F44-60BC23E429DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -739,8 +859,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9794875" y="2541919"/>
-          <a:ext cx="9044838" cy="2204706"/>
+          <a:off x="9981956" y="12108265"/>
+          <a:ext cx="8533870" cy="2017310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>592261</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>70</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>26328</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10440257-1647-40A1-95D3-C80E0A3FC3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9955336" y="16830745"/>
+          <a:ext cx="8578067" cy="1923980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>3890</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD47102A-3EA7-4281-9962-33BBF0D10486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372599" y="2581072"/>
+          <a:ext cx="8538291" cy="2098878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>172013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB72E21-66FE-428F-AF47-FC90EBDC128F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372601" y="540313"/>
+          <a:ext cx="8591550" cy="1881244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,23 +1266,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1041,41 +1293,41 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5" si="0">SUM(-B5,F5)</f>
+        <f t="shared" ref="C5:C14" si="0">SUM(-B5,F5)</f>
         <v>-1</v>
       </c>
       <c r="E5" t="s">
@@ -1093,198 +1345,207 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="M5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <f>SUM(-B6,F6)</f>
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>38</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <f>SUM(-B7,F7)</f>
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8" si="1">SUM(-B8,F8)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
         <v>32</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <f>SUM(-B9,F9)</f>
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9">
-        <v>47</v>
-      </c>
       <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>15</v>
+      </c>
       <c r="M9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <f>SUM(-B10,F10)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>48</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <f>SUM(-B11,F11)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="M11">
+        <v>3.5</v>
+      </c>
+      <c r="N11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <f>SUM(-B12,F12)</f>
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>-19</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F12">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <f>SUM(-B13,F13)</f>
-        <v>-8</v>
+        <f t="shared" si="0"/>
+        <v>-6</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1293,7 +1554,7 @@
         <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>4</v>
@@ -1302,322 +1563,404 @@
         <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M13">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C5:C14)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>92</v>
-      </c>
-      <c r="C14">
-        <f>SUM(-B14,F14)</f>
-        <v>-34</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B19">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C5:C14)</f>
-        <v>99</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>112</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="J20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="J21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
       <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
       <c r="J24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.16949074074074075</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
         <v>42</v>
       </c>
-      <c r="L24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.16879629629629631</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.16879629629629631</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>112</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.16947916666666665</v>
+      </c>
+      <c r="C30">
+        <v>93</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.16879629629629631</v>
+      </c>
+      <c r="C31">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.16947916666666665</v>
+      </c>
+      <c r="C34">
         <v>62</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="D34">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.1278125</v>
+      </c>
+      <c r="C35">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
         <v>48</v>
       </c>
-      <c r="H29" t="s">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s">
         <v>44</v>
       </c>
-      <c r="J29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="F31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="K36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.16949074074074075</v>
+      </c>
+      <c r="C37">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="J32" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="J37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.16949074074074075</v>
+      </c>
+      <c r="C38">
+        <v>62</v>
+      </c>
+      <c r="D38">
         <v>52</v>
-      </c>
-      <c r="K34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36">
-        <v>22</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>72</v>
       </c>
       <c r="F38" t="s">
         <v>2</v>
@@ -1626,186 +1969,275 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.16949074074074075</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39">
-        <v>26</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40">
-        <v>24</v>
+        <v>87</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.12782407407407406</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41">
-        <v>83</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
         <v>44</v>
       </c>
-      <c r="J41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42">
-        <v>31</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45">
-        <v>46</v>
-      </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F47" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F49" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50" t="s">
+        <v>55</v>
+      </c>
+      <c r="U50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F51" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F53" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P93" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O99" t="s">
         <v>79</v>
       </c>
-      <c r="B48">
-        <v>75</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F49" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O50" t="s">
-        <v>67</v>
-      </c>
-      <c r="U50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F51" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/fantasyexcel.xlsx
+++ b/fantasyexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin Woo Hwang\fantasybball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09784C6A-3B19-439C-B5A8-1A288149475F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2944E63A-994B-4802-8016-C7638DF93817}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
   <si>
     <t>PUNT</t>
   </si>
@@ -168,12 +168,6 @@
     <t>WIN</t>
   </si>
   <si>
-    <t>Week7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
     <t>BAPTIST</t>
   </si>
   <si>
@@ -189,12 +183,6 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>6 to 5</t>
-  </si>
-  <si>
-    <t>7 to 1</t>
-  </si>
-  <si>
     <t>8 to 2</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>Top 10</t>
   </si>
   <si>
-    <t>vs LOVEMAKERS</t>
-  </si>
-  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>Bobby</t>
   </si>
   <si>
-    <t xml:space="preserve"> q</t>
-  </si>
-  <si>
     <t>BUDDY</t>
   </si>
   <si>
@@ -316,6 +298,69 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>KINGS</t>
+  </si>
+  <si>
+    <t>WIZARDS</t>
+  </si>
+  <si>
+    <t>CLEVELAND</t>
+  </si>
+  <si>
+    <t>CLIPPERS</t>
+  </si>
+  <si>
+    <t>LAKERS</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>GOBERT</t>
+  </si>
+  <si>
+    <t>BIBBY</t>
+  </si>
+  <si>
+    <t>BOSTON</t>
+  </si>
+  <si>
+    <t>MESSIAH</t>
+  </si>
+  <si>
+    <t>Playoff</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>9 to 2</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>5 to 5</t>
+  </si>
+  <si>
+    <t>vs KRINGO</t>
   </si>
 </sst>
 </file>
@@ -388,13 +433,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>177933</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>331257</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>308372</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>130901</xdr:rowOff>
     </xdr:to>
@@ -419,8 +464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9893433"/>
-          <a:ext cx="9477374" cy="2831635"/>
+          <a:off x="1" y="10269903"/>
+          <a:ext cx="8471784" cy="2683113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,7 +573,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>468840</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>122112</xdr:rowOff>
+      <xdr:rowOff>122111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -704,7 +749,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>438832</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>30432</xdr:rowOff>
+      <xdr:rowOff>31042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -748,7 +793,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>228238</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>130988</xdr:rowOff>
+      <xdr:rowOff>132209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -792,7 +837,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>605462</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -916,22 +961,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2972</xdr:rowOff>
+      <xdr:colOff>610576</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>3890</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>609362</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD47102A-3EA7-4281-9962-33BBF0D10486}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80470DB2-3C71-40D3-B0AB-E8ADD8C20295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9372599" y="2581072"/>
-          <a:ext cx="8538291" cy="2098878"/>
+          <a:off x="9384566" y="542132"/>
+          <a:ext cx="8546863" cy="1845224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,23 +1004,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>172013</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592258</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27607</xdr:rowOff>
+      <xdr:colOff>43280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB72E21-66FE-428F-AF47-FC90EBDC128F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C695AE-EB9C-4719-86A0-47B60FFF4A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,8 +1036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9372601" y="540313"/>
-          <a:ext cx="8591550" cy="1881244"/>
+          <a:off x="9366248" y="2743900"/>
+          <a:ext cx="8609676" cy="2317783"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1301,7 +1346,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1314,6 +1359,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
@@ -1338,6 +1386,9 @@
         <f t="shared" ref="C5:C14" si="0">SUM(-B5,F5)</f>
         <v>-1</v>
       </c>
+      <c r="D5" s="4">
+        <v>0.12711805555555555</v>
+      </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M5">
         <v>1.5</v>
@@ -1359,17 +1410,20 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.12711805555555555</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>47</v>
@@ -1383,11 +1437,14 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.16879629629629631</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -1402,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -1413,11 +1470,14 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.12711805555555555</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -1426,10 +1486,10 @@
         <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1437,11 +1497,14 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.1278125</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1464,11 +1527,14 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.12712962962962962</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1486,11 +1552,14 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.12711805555555555</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -1505,29 +1574,32 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2"/>
       <c r="M11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.12711805555555555</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>39</v>
@@ -1541,11 +1613,14 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.12711805555555555</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1566,13 +1641,13 @@
         <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1580,11 +1655,14 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.1278125</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1595,7 +1673,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
@@ -1607,15 +1685,15 @@
       </c>
       <c r="C16">
         <f>SUM(C5:C14)</f>
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -1623,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -1645,57 +1723,69 @@
       <c r="F20">
         <v>77</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
+      <c r="L20" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J21" t="s">
-        <v>49</v>
+      <c r="L21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
         <v>44</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>42</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24">
+        <v>2017</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>81</v>
+      <c r="A25" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B25" s="5">
         <v>0.16949074074074075</v>
@@ -1706,408 +1796,513 @@
       <c r="D25">
         <v>25</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>52</v>
+      <c r="E25">
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.16879629629629631</v>
+        <v>78</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.16949074074074075</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>76</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
       </c>
       <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.16879629629629631</v>
+        <v>79</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.16949074074074075</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>19</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>186</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="I28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.16947916666666665</v>
+        <v>80</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.16949074074074075</v>
       </c>
       <c r="C30">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>48</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.16879629629629631</v>
-      </c>
-      <c r="C31">
-        <v>59</v>
-      </c>
-      <c r="D31">
-        <v>38</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" t="s">
-        <v>36</v>
+      <c r="I31" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J32" t="s">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.12782407407407406</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I34" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.16947916666666665</v>
-      </c>
-      <c r="C34">
-        <v>62</v>
-      </c>
-      <c r="D34">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="4">
-        <v>0.1278125</v>
-      </c>
-      <c r="C35">
+      <c r="L35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.16947916666666665</v>
+      </c>
+      <c r="C36">
+        <v>93</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="M38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.16879629629629631</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>53</v>
       </c>
-      <c r="F35" t="s">
+      <c r="B42" s="4">
+        <v>0.16879629629629631</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <v>173</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.16879629629629631</v>
+      </c>
+      <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>142</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.16947916666666665</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.16947916666666665</v>
+      </c>
+      <c r="C49">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>66</v>
+      </c>
+      <c r="E49">
         <v>44</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
         <v>42</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K49" t="s">
         <v>43</v>
       </c>
-      <c r="J35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="I50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" t="s">
         <v>33</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K50" t="s">
         <v>38</v>
       </c>
-      <c r="J36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.16949074074074075</v>
-      </c>
-      <c r="C37">
-        <v>81</v>
-      </c>
-      <c r="D37">
-        <v>46</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.16949074074074075</v>
-      </c>
-      <c r="C38">
-        <v>62</v>
-      </c>
-      <c r="D38">
-        <v>52</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.16949074074074075</v>
-      </c>
-      <c r="C39">
-        <v>60</v>
-      </c>
-      <c r="D39">
-        <v>22</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.12782407407407406</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F44" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F49" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F50" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="O50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F51" s="1" t="s">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.1278125</v>
+      </c>
+      <c r="C52">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F52" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F53" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
@@ -2117,42 +2312,42 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O65" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O66" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="P67" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O70" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O71" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O72" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -2162,32 +2357,32 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="P80" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O83" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O84" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O85" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O86" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
@@ -2197,32 +2392,32 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="P93" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O94" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O96" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O97" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O99" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
